--- a/REGULAR/MAYORS OFFICE/PAITON, MARY ANN.xlsx
+++ b/REGULAR/MAYORS OFFICE/PAITON, MARY ANN.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="288">
   <si>
     <t>PERIOD</t>
   </si>
@@ -889,6 +889,15 @@
   </si>
   <si>
     <t>UT(0-0-13)</t>
+  </si>
+  <si>
+    <t>11/13-15/2023</t>
+  </si>
+  <si>
+    <t>FL(5-0-0)</t>
+  </si>
+  <si>
+    <t>12/12,13,18-20/2023</t>
   </si>
 </sst>
 </file>
@@ -1786,7 +1795,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1829,7 +1838,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1893,7 +1902,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1953,7 +1962,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2019,7 +2028,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2082,7 +2091,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2180,7 +2189,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2239,7 +2248,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2304,7 +2313,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2347,7 +2356,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2422,7 +2431,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2608,7 +2617,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2674,7 +2683,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2732,7 +2741,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2798,7 +2807,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2854,7 +2863,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2929,7 +2938,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2972,7 +2981,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3038,7 +3047,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3094,7 +3103,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3192,7 +3201,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3255,7 +3264,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3321,7 +3330,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K703" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K706" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3699,12 +3708,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K703"/>
+  <dimension ref="A2:K706"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="3885" topLeftCell="A493" activePane="bottomLeft"/>
-      <selection activeCell="E8" sqref="E8"/>
-      <selection pane="bottomLeft" activeCell="F506" sqref="F506"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4050" topLeftCell="A514" activePane="bottomLeft"/>
+      <selection activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="E535" sqref="E535"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3865,7 +3874,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>166.93400000000005</v>
+        <v>168.18400000000005</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3875,7 +3884,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>200</v>
+        <v>202.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14970,13 +14979,15 @@
       <c r="B528" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="C528" s="13"/>
+      <c r="C528" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D528" s="39"/>
       <c r="E528" s="9"/>
       <c r="F528" s="20"/>
-      <c r="G528" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G528" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H528" s="39">
         <v>1</v>
@@ -14992,13 +15003,15 @@
         <v>45139</v>
       </c>
       <c r="B529" s="20"/>
-      <c r="C529" s="13"/>
+      <c r="C529" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D529" s="39"/>
       <c r="E529" s="9"/>
       <c r="F529" s="20"/>
-      <c r="G529" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G529" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H529" s="39"/>
       <c r="I529" s="9"/>
@@ -15010,13 +15023,15 @@
         <v>45170</v>
       </c>
       <c r="B530" s="20"/>
-      <c r="C530" s="13"/>
+      <c r="C530" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D530" s="39"/>
       <c r="E530" s="9"/>
       <c r="F530" s="20"/>
-      <c r="G530" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G530" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H530" s="39"/>
       <c r="I530" s="9"/>
@@ -15028,13 +15043,15 @@
         <v>45200</v>
       </c>
       <c r="B531" s="20"/>
-      <c r="C531" s="13"/>
+      <c r="C531" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D531" s="39"/>
       <c r="E531" s="9"/>
       <c r="F531" s="20"/>
-      <c r="G531" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G531" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H531" s="39"/>
       <c r="I531" s="9"/>
@@ -15045,25 +15062,33 @@
       <c r="A532" s="40">
         <v>45231</v>
       </c>
-      <c r="B532" s="20"/>
-      <c r="C532" s="13"/>
+      <c r="B532" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="C532" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D532" s="39"/>
       <c r="E532" s="9"/>
       <c r="F532" s="20"/>
-      <c r="G532" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H532" s="39"/>
+      <c r="G532" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H532" s="39">
+        <v>1</v>
+      </c>
       <c r="I532" s="9"/>
       <c r="J532" s="11"/>
-      <c r="K532" s="20"/>
+      <c r="K532" s="48">
+        <v>45233</v>
+      </c>
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A533" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B533" s="20"/>
+      <c r="A533" s="40"/>
+      <c r="B533" s="20" t="s">
+        <v>271</v>
+      </c>
       <c r="C533" s="13"/>
       <c r="D533" s="39"/>
       <c r="E533" s="9"/>
@@ -15075,13 +15100,15 @@
       <c r="H533" s="39"/>
       <c r="I533" s="9"/>
       <c r="J533" s="11"/>
-      <c r="K533" s="20"/>
+      <c r="K533" s="48">
+        <v>45240</v>
+      </c>
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A534" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B534" s="20"/>
+      <c r="A534" s="40"/>
+      <c r="B534" s="20" t="s">
+        <v>276</v>
+      </c>
       <c r="C534" s="13"/>
       <c r="D534" s="39"/>
       <c r="E534" s="9"/>
@@ -15090,18 +15117,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H534" s="39"/>
+      <c r="H534" s="39">
+        <v>3</v>
+      </c>
       <c r="I534" s="9"/>
       <c r="J534" s="11"/>
-      <c r="K534" s="20"/>
+      <c r="K534" s="48" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A535" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B535" s="20"/>
+      <c r="A535" s="40"/>
+      <c r="B535" s="20" t="s">
+        <v>286</v>
+      </c>
       <c r="C535" s="13"/>
-      <c r="D535" s="39"/>
+      <c r="D535" s="39">
+        <v>5</v>
+      </c>
       <c r="E535" s="9"/>
       <c r="F535" s="20"/>
       <c r="G535" s="13" t="str">
@@ -15111,11 +15144,13 @@
       <c r="H535" s="39"/>
       <c r="I535" s="9"/>
       <c r="J535" s="11"/>
-      <c r="K535" s="20"/>
+      <c r="K535" s="48" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
-        <v>45352</v>
+        <v>45261</v>
       </c>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -15133,7 +15168,7 @@
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
-        <v>45383</v>
+        <v>45292</v>
       </c>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -15151,7 +15186,7 @@
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
-        <v>45413</v>
+        <v>45323</v>
       </c>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -15169,7 +15204,7 @@
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
-        <v>45444</v>
+        <v>45352</v>
       </c>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -15187,7 +15222,7 @@
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
-        <v>45474</v>
+        <v>45383</v>
       </c>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -15205,7 +15240,7 @@
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
-        <v>45505</v>
+        <v>45413</v>
       </c>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -15223,7 +15258,7 @@
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
-        <v>45536</v>
+        <v>45444</v>
       </c>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -15241,7 +15276,7 @@
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
-        <v>45566</v>
+        <v>45474</v>
       </c>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -15259,7 +15294,7 @@
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
-        <v>45597</v>
+        <v>45505</v>
       </c>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -15277,7 +15312,7 @@
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
-        <v>45627</v>
+        <v>45536</v>
       </c>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -15295,7 +15330,7 @@
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
-        <v>45658</v>
+        <v>45566</v>
       </c>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -15313,7 +15348,7 @@
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
-        <v>45689</v>
+        <v>45597</v>
       </c>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -15331,7 +15366,7 @@
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
-        <v>45717</v>
+        <v>45627</v>
       </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -15349,7 +15384,7 @@
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
-        <v>45748</v>
+        <v>45658</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -15367,7 +15402,7 @@
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
-        <v>45778</v>
+        <v>45689</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -15385,7 +15420,7 @@
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
-        <v>45809</v>
+        <v>45717</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -15403,7 +15438,7 @@
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
-        <v>45839</v>
+        <v>45748</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -15421,7 +15456,7 @@
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
-        <v>45870</v>
+        <v>45778</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -15439,7 +15474,7 @@
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
-        <v>45901</v>
+        <v>45809</v>
       </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -15457,7 +15492,7 @@
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
-        <v>45931</v>
+        <v>45839</v>
       </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -15475,7 +15510,7 @@
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
-        <v>45962</v>
+        <v>45870</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -15493,7 +15528,7 @@
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
-        <v>45992</v>
+        <v>45901</v>
       </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -15511,7 +15546,7 @@
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
-        <v>46023</v>
+        <v>45931</v>
       </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -15529,7 +15564,7 @@
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
-        <v>46054</v>
+        <v>45962</v>
       </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -15547,7 +15582,7 @@
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
-        <v>46082</v>
+        <v>45992</v>
       </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -15565,7 +15600,7 @@
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
-        <v>46113</v>
+        <v>46023</v>
       </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -15583,7 +15618,7 @@
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
-        <v>46143</v>
+        <v>46054</v>
       </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -15601,7 +15636,7 @@
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
-        <v>46174</v>
+        <v>46082</v>
       </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -15619,7 +15654,7 @@
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
-        <v>46204</v>
+        <v>46113</v>
       </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -15637,7 +15672,7 @@
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
-        <v>46235</v>
+        <v>46143</v>
       </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -15655,7 +15690,7 @@
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
-        <v>46266</v>
+        <v>46174</v>
       </c>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -15673,7 +15708,7 @@
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
-        <v>46296</v>
+        <v>46204</v>
       </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -15691,7 +15726,7 @@
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
-        <v>46327</v>
+        <v>46235</v>
       </c>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -15709,7 +15744,7 @@
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
-        <v>46357</v>
+        <v>46266</v>
       </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -15727,7 +15762,7 @@
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
-        <v>46388</v>
+        <v>46296</v>
       </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -15745,7 +15780,7 @@
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
-        <v>46419</v>
+        <v>46327</v>
       </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -15763,7 +15798,7 @@
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
-        <v>46447</v>
+        <v>46357</v>
       </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -15781,7 +15816,7 @@
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
-        <v>46478</v>
+        <v>46388</v>
       </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -15799,7 +15834,7 @@
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
-        <v>46508</v>
+        <v>46419</v>
       </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -15817,7 +15852,7 @@
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
-        <v>46539</v>
+        <v>46447</v>
       </c>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -15835,7 +15870,7 @@
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
-        <v>46569</v>
+        <v>46478</v>
       </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -15853,7 +15888,7 @@
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
-        <v>46600</v>
+        <v>46508</v>
       </c>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -15871,7 +15906,7 @@
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
-        <v>46631</v>
+        <v>46539</v>
       </c>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -15889,7 +15924,7 @@
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
-        <v>46661</v>
+        <v>46569</v>
       </c>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -15907,7 +15942,7 @@
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
-        <v>46692</v>
+        <v>46600</v>
       </c>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -15925,7 +15960,7 @@
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
-        <v>46722</v>
+        <v>46631</v>
       </c>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -15943,7 +15978,7 @@
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
-        <v>46753</v>
+        <v>46661</v>
       </c>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -15961,7 +15996,7 @@
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
-        <v>46784</v>
+        <v>46692</v>
       </c>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -15979,7 +16014,7 @@
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
-        <v>46813</v>
+        <v>46722</v>
       </c>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -15997,7 +16032,7 @@
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
-        <v>46844</v>
+        <v>46753</v>
       </c>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -16015,7 +16050,7 @@
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
-        <v>46874</v>
+        <v>46784</v>
       </c>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -16033,7 +16068,7 @@
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
-        <v>46905</v>
+        <v>46813</v>
       </c>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -16051,7 +16086,7 @@
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
-        <v>46935</v>
+        <v>46844</v>
       </c>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -16069,7 +16104,7 @@
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
-        <v>46966</v>
+        <v>46874</v>
       </c>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -16087,7 +16122,7 @@
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
-        <v>46997</v>
+        <v>46905</v>
       </c>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -16105,7 +16140,7 @@
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
-        <v>47027</v>
+        <v>46935</v>
       </c>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -16123,7 +16158,7 @@
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
-        <v>47058</v>
+        <v>46966</v>
       </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -16141,7 +16176,7 @@
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
-        <v>47088</v>
+        <v>46997</v>
       </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -16159,7 +16194,7 @@
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
-        <v>47119</v>
+        <v>47027</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -16177,7 +16212,7 @@
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
-        <v>47150</v>
+        <v>47058</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -16195,7 +16230,7 @@
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
-        <v>47178</v>
+        <v>47088</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -16213,7 +16248,7 @@
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
-        <v>47209</v>
+        <v>47119</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -16231,7 +16266,7 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
-        <v>47239</v>
+        <v>47150</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -16249,7 +16284,7 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
-        <v>47270</v>
+        <v>47178</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -16267,7 +16302,7 @@
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
-        <v>47300</v>
+        <v>47209</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -16285,7 +16320,7 @@
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
-        <v>47331</v>
+        <v>47239</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -16303,7 +16338,7 @@
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
-        <v>47362</v>
+        <v>47270</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -16321,7 +16356,7 @@
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
-        <v>47392</v>
+        <v>47300</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -16339,7 +16374,7 @@
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
-        <v>47423</v>
+        <v>47331</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -16356,7 +16391,9 @@
       <c r="K604" s="20"/>
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A605" s="40"/>
+      <c r="A605" s="40">
+        <v>47362</v>
+      </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
       <c r="D605" s="39"/>
@@ -16372,7 +16409,9 @@
       <c r="K605" s="20"/>
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A606" s="40"/>
+      <c r="A606" s="40">
+        <v>47392</v>
+      </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
       <c r="D606" s="39"/>
@@ -16388,7 +16427,9 @@
       <c r="K606" s="20"/>
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A607" s="40"/>
+      <c r="A607" s="40">
+        <v>47423</v>
+      </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
       <c r="D607" s="39"/>
@@ -17924,20 +17965,68 @@
       <c r="K702" s="20"/>
     </row>
     <row r="703" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A703" s="53"/>
-      <c r="B703" s="15"/>
-      <c r="C703" s="41"/>
-      <c r="D703" s="42"/>
+      <c r="A703" s="40"/>
+      <c r="B703" s="20"/>
+      <c r="C703" s="13"/>
+      <c r="D703" s="39"/>
       <c r="E703" s="9"/>
-      <c r="F703" s="15"/>
-      <c r="G703" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H703" s="42"/>
+      <c r="F703" s="20"/>
+      <c r="G703" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H703" s="39"/>
       <c r="I703" s="9"/>
-      <c r="J703" s="12"/>
-      <c r="K703" s="15"/>
+      <c r="J703" s="11"/>
+      <c r="K703" s="20"/>
+    </row>
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A704" s="40"/>
+      <c r="B704" s="20"/>
+      <c r="C704" s="13"/>
+      <c r="D704" s="39"/>
+      <c r="E704" s="9"/>
+      <c r="F704" s="20"/>
+      <c r="G704" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H704" s="39"/>
+      <c r="I704" s="9"/>
+      <c r="J704" s="11"/>
+      <c r="K704" s="20"/>
+    </row>
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A705" s="40"/>
+      <c r="B705" s="20"/>
+      <c r="C705" s="13"/>
+      <c r="D705" s="39"/>
+      <c r="E705" s="9"/>
+      <c r="F705" s="20"/>
+      <c r="G705" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H705" s="39"/>
+      <c r="I705" s="9"/>
+      <c r="J705" s="11"/>
+      <c r="K705" s="20"/>
+    </row>
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A706" s="53"/>
+      <c r="B706" s="15"/>
+      <c r="C706" s="41"/>
+      <c r="D706" s="42"/>
+      <c r="E706" s="9"/>
+      <c r="F706" s="15"/>
+      <c r="G706" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H706" s="42"/>
+      <c r="I706" s="9"/>
+      <c r="J706" s="12"/>
+      <c r="K706" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
